--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D060677\git\ma\diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{677D66F7-BB5C-4853-B9AA-4022E5E87873}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30E5BA18-ADB5-41BB-9385-6FE4FC348704}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{9CB84A3B-08C4-40A3-BF8A-3F7282549A57}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
